--- a/output/2023/HaV/table1.xlsx
+++ b/output/2023/HaV/table1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>185911.3999999997</v>
+        <v>532579.000000001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>185911.3999999997</v>
+        <v>532579.000000001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>172731.7999999998</v>
+        <v>460708.1000000002</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2607,15 +2607,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C113">
-        <v>19677</v>
+        <v>133.5</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -2627,15 +2627,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C114">
-        <v>1098.7</v>
+        <v>19677</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -2647,15 +2647,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>1098.7</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -2667,15 +2667,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C116">
-        <v>425</v>
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -2687,15 +2687,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C117">
-        <v>5252.5</v>
+        <v>425</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -2707,15 +2707,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C118">
-        <v>10424</v>
+        <v>5252.5</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -2727,15 +2727,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C119">
-        <v>7242</v>
+        <v>10424</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -2747,15 +2747,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C120">
-        <v>32384.79999999999</v>
+        <v>7242</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C121">
-        <v>3385.6</v>
+        <v>32384.79999999999</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2787,15 +2787,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C122">
-        <v>9849.799999999999</v>
+        <v>3385.6</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>ple.27.21-23</t>
         </is>
       </c>
       <c r="C123">
-        <v>2837.4</v>
+        <v>9849.799999999999</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2827,11 +2827,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>ple.27.24-32</t>
         </is>
       </c>
       <c r="C124">
-        <v>461.2</v>
+        <v>2837.4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2847,15 +2847,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>461.2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C126">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -2887,11 +2887,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C127">
-        <v>2356.2</v>
+        <v>301</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2907,15 +2907,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>2356.2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C129">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2947,11 +2947,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C130">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2967,15 +2967,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C131">
-        <v>2892.1</v>
+        <v>304</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -2987,15 +2987,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C132">
-        <v>8584.700000000001</v>
+        <v>2892.1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C133">
-        <v>12772.6</v>
+        <v>8584.700000000001</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C134">
-        <v>1869.5</v>
+        <v>12772.6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3047,11 +3047,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C135">
-        <v>10620.8</v>
+        <v>1869.5</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3067,11 +3067,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bwp.27.2628</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C136">
-        <v>7178.800000000002</v>
+        <v>10620.8</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3087,15 +3087,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C137">
-        <v>846.5</v>
+        <v>7178.800000000002</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3107,11 +3107,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C138">
-        <v>1801.5</v>
+        <v>846.5</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3127,15 +3127,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C139">
-        <v>11824.20000000002</v>
+        <v>1801.5</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -3147,11 +3147,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C140">
-        <v>4566.199999999996</v>
+        <v>11824.20000000002</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3167,11 +3167,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C141">
-        <v>13200.20000000001</v>
+        <v>4566.199999999996</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3187,11 +3187,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C142">
-        <v>174.2</v>
+        <v>13200.20000000001</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3207,15 +3207,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>174.2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -3227,15 +3227,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C144">
-        <v>2503.5</v>
+        <v>5</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -3247,15 +3247,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C145">
-        <v>2164.7</v>
+        <v>2503.5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
@@ -3267,11 +3267,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C146">
-        <v>40</v>
+        <v>2164.7</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3282,20 +3282,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>btrout.27.3a</t>
         </is>
       </c>
       <c r="C147">
-        <v>29.6</v>
+        <v>40</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -3307,15 +3307,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C148">
-        <v>7401.5</v>
+        <v>29.6</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
@@ -3327,15 +3327,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>pol.27.3a4</t>
         </is>
       </c>
       <c r="C149">
-        <v>50</v>
+        <v>7401.5</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Bleka</t>
         </is>
       </c>
     </row>
@@ -3347,15 +3347,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C150">
-        <v>918.7</v>
+        <v>50</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -3367,15 +3367,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C151">
-        <v>462.7</v>
+        <v>918.7</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -3387,15 +3387,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>caa.27.3a46</t>
         </is>
       </c>
       <c r="C152">
-        <v>2.2</v>
+        <v>462.7</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Havskatt</t>
         </is>
       </c>
     </row>
@@ -3407,15 +3407,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C153">
-        <v>14.5</v>
+        <v>2.2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -3427,15 +3427,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>14.5</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -3447,15 +3447,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C155">
-        <v>19677</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -3467,15 +3467,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C156">
-        <v>1098.7</v>
+        <v>133.5</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -3487,15 +3487,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>19677</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C158">
-        <v>425</v>
+        <v>1098.7</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -3527,15 +3527,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C159">
-        <v>5579</v>
+        <v>7</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -3547,15 +3547,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C160">
-        <v>10424</v>
+        <v>425</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -3567,15 +3567,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C161">
-        <v>7242</v>
+        <v>5579</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -3587,15 +3587,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C162">
-        <v>32430.09999999999</v>
+        <v>10424</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -3607,15 +3607,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C163">
-        <v>3385.6</v>
+        <v>7242</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -3627,15 +3627,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C164">
-        <v>9861.799999999999</v>
+        <v>32430.09999999999</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -3647,15 +3647,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C165">
-        <v>2837.4</v>
+        <v>3385.6</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -3667,11 +3667,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>ple.27.21-23</t>
         </is>
       </c>
       <c r="C166">
-        <v>461.2</v>
+        <v>9861.799999999999</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3687,15 +3687,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>ple.27.24-32</t>
         </is>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2837.4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -3707,15 +3707,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C168">
-        <v>301</v>
+        <v>461.2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -3727,15 +3727,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C169">
-        <v>2356.2</v>
+        <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -3747,15 +3747,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C170">
-        <v>149.5</v>
+        <v>301</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -3767,15 +3767,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C171">
-        <v>257</v>
+        <v>2356.2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -3787,11 +3787,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C172">
-        <v>304</v>
+        <v>149.5</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3807,15 +3807,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C173">
-        <v>2892.1</v>
+        <v>257</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -3827,15 +3827,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C174">
-        <v>8636.700000000001</v>
+        <v>304</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -3847,15 +3847,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C175">
-        <v>13106.6</v>
+        <v>2892.1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -3867,11 +3867,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C176">
-        <v>1869.5</v>
+        <v>8636.700000000001</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3887,11 +3887,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C177">
-        <v>10853.8</v>
+        <v>13106.6</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3907,11 +3907,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>bwp.27.2628</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C178">
-        <v>7406.800000000002</v>
+        <v>1869.5</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3927,15 +3927,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C179">
-        <v>846.5</v>
+        <v>10853.8</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3947,15 +3947,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C180">
-        <v>1801.5</v>
+        <v>7406.800000000002</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3967,15 +3967,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C181">
-        <v>12449.20000000002</v>
+        <v>846.5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -3987,15 +3987,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C182">
-        <v>4570.399999999996</v>
+        <v>1801.5</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C183">
-        <v>13200.20000000001</v>
+        <v>12449.20000000002</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4027,11 +4027,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C184">
-        <v>174.2</v>
+        <v>4570.399999999996</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4047,15 +4047,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>13200.20000000001</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -4067,15 +4067,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C186">
-        <v>2503.5</v>
+        <v>174.2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -4087,15 +4087,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C187">
-        <v>2388.7</v>
+        <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -4107,55 +4107,55 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C188">
-        <v>40</v>
+        <v>2503.5</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C189">
-        <v>68</v>
+        <v>2388.7</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>btrout.27.3a</t>
         </is>
       </c>
       <c r="C190">
-        <v>60229.1</v>
+        <v>40</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -4167,15 +4167,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C191">
-        <v>47111.5</v>
+        <v>68</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -4187,15 +4187,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>60229.1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
@@ -4207,55 +4207,55 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>47111.5</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C195">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -4267,15 +4267,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C196">
-        <v>274550.4000000007</v>
+        <v>3</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -4287,15 +4287,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>caa.27.3a46</t>
         </is>
       </c>
       <c r="C197">
-        <v>541.2</v>
+        <v>55</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Havskatt</t>
         </is>
       </c>
     </row>
@@ -4307,15 +4307,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C198">
-        <v>10277.1</v>
+        <v>274550.4000000007</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -4327,15 +4327,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C199">
-        <v>358</v>
+        <v>541.2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
@@ -4347,15 +4347,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>10277.1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -4367,15 +4367,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C201">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -4387,15 +4387,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C202">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -4407,15 +4407,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -4427,15 +4427,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -4447,15 +4447,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C205">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -4467,15 +4467,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C206">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -4487,15 +4487,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C207">
-        <v>452.9999999999997</v>
+        <v>12</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -4507,55 +4507,55 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C208">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C209">
-        <v>199.5</v>
+        <v>452.9999999999997</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C210">
-        <v>10.3</v>
+        <v>139</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -4567,15 +4567,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C211">
-        <v>32</v>
+        <v>199.5</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
@@ -4587,15 +4587,15 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>pol.27.3a4</t>
         </is>
       </c>
       <c r="C212">
-        <v>672.4999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Bleka</t>
         </is>
       </c>
     </row>
@@ -4607,15 +4607,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C213">
-        <v>76.99999999999999</v>
+        <v>32</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -4627,15 +4627,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C214">
-        <v>793021.0999999996</v>
+        <v>672.4999999999999</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -4647,15 +4647,15 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>caa.27.3a46</t>
         </is>
       </c>
       <c r="C215">
-        <v>5.3</v>
+        <v>76.99999999999999</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Havskatt</t>
         </is>
       </c>
     </row>
@@ -4667,15 +4667,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C216">
-        <v>128.3</v>
+        <v>793021.0999999996</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -4687,15 +4687,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C217">
-        <v>101.6</v>
+        <v>5.3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -4707,15 +4707,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C218">
-        <v>719.7</v>
+        <v>128.3</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -4727,15 +4727,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C219">
-        <v>124.7</v>
+        <v>2365.600000000001</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -4747,15 +4747,15 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C220">
-        <v>713.1</v>
+        <v>101.6</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -4767,15 +4767,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C221">
-        <v>618.1999999999998</v>
+        <v>719.7</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -4787,15 +4787,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C222">
-        <v>1581.5</v>
+        <v>124.7</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -4807,15 +4807,15 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C223">
-        <v>1094.7</v>
+        <v>713.1</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -4827,15 +4827,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C224">
-        <v>630.8999999999995</v>
+        <v>618.1999999999998</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -4847,15 +4847,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C225">
-        <v>1432.799999999999</v>
+        <v>1581.5</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -4867,15 +4867,15 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C226">
-        <v>765.8000000000009</v>
+        <v>1094.7</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -4887,15 +4887,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C227">
-        <v>279.2999999999999</v>
+        <v>630.8999999999995</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -4907,15 +4907,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C228">
-        <v>1346.1</v>
+        <v>1432.799999999999</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -4927,15 +4927,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>ple.27.21-23</t>
         </is>
       </c>
       <c r="C229">
-        <v>334.4</v>
+        <v>765.8000000000009</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -4947,15 +4947,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C230">
-        <v>391.4</v>
+        <v>279.2999999999999</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -4967,15 +4967,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C231">
-        <v>95</v>
+        <v>1346.1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -4987,15 +4987,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C232">
-        <v>3165.399999999998</v>
+        <v>334.4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -5007,15 +5007,15 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>391.4</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -5027,15 +5027,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C234">
-        <v>2273.399999999999</v>
+        <v>95</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -5047,15 +5047,15 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C235">
-        <v>503.2999999999998</v>
+        <v>3165.399999999998</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -5067,15 +5067,15 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C236">
-        <v>2184.200000000006</v>
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -5087,15 +5087,15 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C237">
-        <v>21</v>
+        <v>2273.399999999999</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -5107,75 +5107,75 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C238">
-        <v>750.900000000001</v>
+        <v>503.2999999999998</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C239">
-        <v>116006.8</v>
+        <v>2184.200000000006</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C240">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C241">
-        <v>90</v>
+        <v>750.900000000001</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
@@ -5187,15 +5187,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C242">
-        <v>171</v>
+        <v>116006.8</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -5207,15 +5207,15 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C243">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -5227,75 +5227,75 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C244">
-        <v>3821.600000000001</v>
+        <v>90</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C245">
-        <v>360500</v>
+        <v>171</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C246">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C247">
-        <v>6930</v>
+        <v>3821.600000000001</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -5307,15 +5307,15 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C248">
-        <v>3650</v>
+        <v>360500</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
@@ -5327,15 +5327,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C249">
-        <v>47110</v>
+        <v>368</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -5347,15 +5347,15 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C250">
-        <v>7</v>
+        <v>6930</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -5367,15 +5367,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C251">
-        <v>2032925</v>
+        <v>3650</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -5387,15 +5387,15 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C252">
-        <v>20</v>
+        <v>47130</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -5407,15 +5407,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C253">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -5427,15 +5427,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>2032925</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -5447,15 +5447,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -5467,15 +5467,15 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C256">
-        <v>706</v>
+        <v>220</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -5487,15 +5487,15 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C257">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -5507,15 +5507,15 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>ple.27.24-32</t>
         </is>
       </c>
       <c r="C258">
-        <v>4092</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -5527,15 +5527,15 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C259">
-        <v>12792425.99999999</v>
+        <v>706</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -5547,15 +5547,15 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C260">
-        <v>21890854.99999999</v>
+        <v>75</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -5567,15 +5567,15 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C261">
-        <v>10761656</v>
+        <v>4092</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
@@ -5587,11 +5587,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C262">
-        <v>274410.0000000001</v>
+        <v>12792425.99999999</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5607,15 +5607,15 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>lumpsucker.27</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C263">
-        <v>864</v>
+        <v>21890854.99999999</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -5627,15 +5627,15 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C264">
-        <v>44256010</v>
+        <v>10761656</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -5647,15 +5647,15 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C265">
-        <v>9239606</v>
+        <v>274410.0000000001</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -5667,15 +5667,15 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t>lumpsucker.27</t>
         </is>
       </c>
       <c r="C266">
-        <v>11073</v>
+        <v>864</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -5687,15 +5687,15 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C267">
-        <v>35</v>
+        <v>44256010</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -5707,15 +5707,15 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>bwp.27.2628</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C268">
-        <v>3595</v>
+        <v>9239606</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -5727,11 +5727,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C269">
-        <v>300</v>
+        <v>11073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5747,15 +5747,15 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C270">
-        <v>1050</v>
+        <v>35</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -5767,15 +5767,15 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C271">
-        <v>7958</v>
+        <v>3595</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -5787,15 +5787,15 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C272">
-        <v>9625</v>
+        <v>300</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -5807,15 +5807,15 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>san.27.3a4</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C273">
-        <v>26015000</v>
+        <v>1050</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Tobis</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -5827,15 +5827,15 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>hom.27.2a4a5b6a7a-ce-k8</t>
         </is>
       </c>
       <c r="C274">
-        <v>2153</v>
+        <v>7958</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -5847,15 +5847,15 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C275">
-        <v>147</v>
+        <v>9625</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -5867,15 +5867,15 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>san.27.3a4</t>
         </is>
       </c>
       <c r="C276">
-        <v>180</v>
+        <v>26015000</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Tobis</t>
         </is>
       </c>
     </row>
@@ -5887,15 +5887,15 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C277">
-        <v>38570</v>
+        <v>2153</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -5907,15 +5907,15 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C278">
-        <v>782</v>
+        <v>147</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -5927,75 +5927,75 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C279">
-        <v>11710</v>
+        <v>180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C280">
-        <v>360500</v>
+        <v>38570</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C281">
-        <v>368</v>
+        <v>782</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C282">
-        <v>6930</v>
+        <v>11710</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -6007,15 +6007,15 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C283">
-        <v>3650</v>
+        <v>360500</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
@@ -6027,15 +6027,15 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C284">
-        <v>47110</v>
+        <v>368</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -6047,15 +6047,15 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C285">
-        <v>7</v>
+        <v>6930</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -6067,15 +6067,15 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C286">
-        <v>2032898</v>
+        <v>3650</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -6087,15 +6087,15 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C287">
-        <v>20</v>
+        <v>47130</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -6107,15 +6107,15 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C288">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -6127,15 +6127,15 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C289">
-        <v>10</v>
+        <v>2032898</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -6147,15 +6147,15 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -6167,15 +6167,15 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C291">
-        <v>706</v>
+        <v>220</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -6187,15 +6187,15 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C292">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -6207,15 +6207,15 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>ple.27.24-32</t>
         </is>
       </c>
       <c r="C293">
-        <v>4092</v>
+        <v>1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -6227,15 +6227,15 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C294">
-        <v>12792425.99999999</v>
+        <v>706</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -6247,15 +6247,15 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C295">
-        <v>21823754.99999999</v>
+        <v>75</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -6267,15 +6267,15 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C296">
-        <v>10761656</v>
+        <v>4092</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
@@ -6287,11 +6287,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C297">
-        <v>274410.0000000001</v>
+        <v>12792425.99999999</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6307,15 +6307,15 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>lumpsucker.27</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C298">
-        <v>864</v>
+        <v>21823754.99999999</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6327,15 +6327,15 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C299">
-        <v>44256010</v>
+        <v>10761656</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6347,15 +6347,15 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C300">
-        <v>9180456</v>
+        <v>274410.0000000001</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6367,15 +6367,15 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t>lumpsucker.27</t>
         </is>
       </c>
       <c r="C301">
-        <v>11073</v>
+        <v>864</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -6387,15 +6387,15 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C302">
-        <v>35</v>
+        <v>44256010</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -6407,15 +6407,15 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>bwp.27.2628</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C303">
-        <v>3595</v>
+        <v>9180456</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -6427,11 +6427,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C304">
-        <v>300</v>
+        <v>11073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6447,15 +6447,15 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C305">
-        <v>1050</v>
+        <v>35</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -6467,15 +6467,15 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C306">
-        <v>7958</v>
+        <v>3595</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -6487,15 +6487,15 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C307">
-        <v>9625</v>
+        <v>300</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -6507,15 +6507,15 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>san.27.3a4</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C308">
-        <v>26015000</v>
+        <v>1050</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Tobis</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -6527,15 +6527,15 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>hom.27.2a4a5b6a7a-ce-k8</t>
         </is>
       </c>
       <c r="C309">
-        <v>2153</v>
+        <v>7958</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -6547,15 +6547,15 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C310">
-        <v>147</v>
+        <v>9625</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -6567,15 +6567,15 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>san.27.3a4</t>
         </is>
       </c>
       <c r="C311">
-        <v>180</v>
+        <v>26015000</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Tobis</t>
         </is>
       </c>
     </row>
@@ -6587,15 +6587,15 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C312">
-        <v>38570</v>
+        <v>2153</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -6607,15 +6607,15 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C313">
-        <v>782</v>
+        <v>147</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -6627,75 +6627,75 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C314">
-        <v>11710</v>
+        <v>180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C315">
-        <v>9</v>
+        <v>38570</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C316">
-        <v>20</v>
+        <v>782</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C317">
-        <v>3</v>
+        <v>11710</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -6707,15 +6707,15 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -6727,15 +6727,15 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C319">
-        <v>168976.5</v>
+        <v>20</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -6747,15 +6747,15 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C320">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -6767,15 +6767,15 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C321">
-        <v>1250</v>
+        <v>4</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -6787,15 +6787,15 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C322">
-        <v>233007</v>
+        <v>168976.5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -6807,15 +6807,15 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C323">
-        <v>78962.99999999996</v>
+        <v>337</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -6827,15 +6827,15 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C324">
-        <v>11239</v>
+        <v>1250</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
@@ -6847,11 +6847,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C325">
-        <v>272861</v>
+        <v>233007</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6867,15 +6867,15 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C326">
-        <v>46</v>
+        <v>78962.99999999996</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6887,15 +6887,15 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C327">
-        <v>50</v>
+        <v>11239</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6907,15 +6907,15 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C328">
-        <v>0.6</v>
+        <v>272861</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -6927,15 +6927,15 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C329">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -6947,15 +6947,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C330">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -6967,15 +6967,15 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C331">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -6987,75 +6987,75 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C332">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C333">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C334">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -7067,15 +7067,15 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C336">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -7087,15 +7087,15 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C337">
-        <v>168976.5</v>
+        <v>20</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -7107,15 +7107,15 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C338">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -7127,15 +7127,15 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C339">
-        <v>12317</v>
+        <v>4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
@@ -7147,15 +7147,15 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C340">
-        <v>233457</v>
+        <v>168976.5</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -7167,15 +7167,15 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C341">
-        <v>78962.99999999996</v>
+        <v>337</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -7187,15 +7187,15 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C342">
-        <v>11239</v>
+        <v>12317</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
@@ -7207,11 +7207,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C343">
-        <v>272861</v>
+        <v>233457</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7227,15 +7227,15 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C344">
-        <v>46</v>
+        <v>78962.99999999996</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -7247,15 +7247,15 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C345">
-        <v>50</v>
+        <v>11239</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -7267,15 +7267,15 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>her.27.20-24</t>
         </is>
       </c>
       <c r="C346">
-        <v>0.6</v>
+        <v>272861</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -7287,15 +7287,15 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C347">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -7307,15 +7307,15 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
@@ -7327,15 +7327,15 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C349">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -7347,75 +7347,75 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C350">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C351">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C352">
-        <v>819.5999999999998</v>
+        <v>7</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C353">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -7427,15 +7427,15 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C354">
-        <v>53919.20000000011</v>
+        <v>16.5</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
@@ -7447,15 +7447,15 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>pol.27.3a4</t>
         </is>
       </c>
       <c r="C355">
-        <v>7.8</v>
+        <v>819.5999999999998</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Bleka</t>
         </is>
       </c>
     </row>
@@ -7467,15 +7467,15 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C356">
-        <v>6189.200000000002</v>
+        <v>91</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
@@ -7487,15 +7487,15 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C357">
-        <v>1345.7</v>
+        <v>53919.20000000011</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -7507,15 +7507,15 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>caa.27.3a46</t>
         </is>
       </c>
       <c r="C358">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Havskatt</t>
         </is>
       </c>
     </row>
@@ -7527,15 +7527,15 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C359">
-        <v>4284.100000000001</v>
+        <v>6189.200000000002</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -7547,15 +7547,15 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C360">
-        <v>8346.199999999993</v>
+        <v>1345.7</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -7567,15 +7567,15 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C361">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -7587,15 +7587,15 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C362">
-        <v>11820.29999999999</v>
+        <v>8499.900000000025</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -7607,15 +7607,15 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C363">
-        <v>937569.199999998</v>
+        <v>4284.100000000001</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -7627,15 +7627,15 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C364">
-        <v>54</v>
+        <v>8346.199999999993</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -7647,15 +7647,15 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C365">
-        <v>27.8</v>
+        <v>8.5</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -7667,15 +7667,15 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C366">
-        <v>470.1000000000005</v>
+        <v>11820.29999999999</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -7687,15 +7687,15 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C367">
-        <v>54.1</v>
+        <v>937569.199999998</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -7707,15 +7707,15 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C368">
-        <v>2901.399999999989</v>
+        <v>54</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -7727,15 +7727,15 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C369">
-        <v>419</v>
+        <v>27.8</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -7747,15 +7747,15 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C370">
-        <v>10</v>
+        <v>470.1000000000005</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -7767,15 +7767,15 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>rng.27.3a</t>
+          <t>ple.27.21-23</t>
         </is>
       </c>
       <c r="C371">
-        <v>1000</v>
+        <v>54.1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Skoläst</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -7787,15 +7787,15 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C372">
-        <v>7.1</v>
+        <v>2901.399999999989</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -7807,15 +7807,15 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>her.27.3a47d</t>
         </is>
       </c>
       <c r="C373">
-        <v>28421.89999999999</v>
+        <v>419</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -7827,15 +7827,15 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C374">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -7847,15 +7847,15 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>rng.27.3a</t>
         </is>
       </c>
       <c r="C375">
-        <v>1.3</v>
+        <v>1000</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Skoläst</t>
         </is>
       </c>
     </row>
@@ -7867,15 +7867,15 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C376">
-        <v>428.5</v>
+        <v>7.1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -7887,135 +7887,135 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C377">
-        <v>32929.5</v>
+        <v>28421.89999999999</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Siklöjefiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C378">
-        <v>1239670</v>
+        <v>11.2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Siklöjefiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C379">
-        <v>145617.0000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C380">
-        <v>74</v>
+        <v>428.5</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>32929.5</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
+          <t>Siklöjefiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C382">
-        <v>0.4</v>
+        <v>1239670</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
+          <t>Siklöjefiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>her.27.3031</t>
         </is>
       </c>
       <c r="C383">
-        <v>5</v>
+        <v>145617.0000000001</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -8027,15 +8027,15 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C384">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -8047,15 +8047,15 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C385">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -8067,15 +8067,15 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>ple.27.420</t>
         </is>
       </c>
       <c r="C386">
-        <v>1436</v>
+        <v>0.4</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Rödspotta</t>
         </is>
       </c>
     </row>
@@ -8087,15 +8087,15 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>fle.27.24-25</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C387">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -8107,15 +8107,15 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>her.27.25-2932</t>
         </is>
       </c>
       <c r="C388">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sill/Strömming</t>
         </is>
       </c>
     </row>
@@ -8127,15 +8127,15 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C389">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -8147,15 +8147,15 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C390">
-        <v>25</v>
+        <v>1436</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -8167,15 +8167,15 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C391">
-        <v>39.99999999999999</v>
+        <v>53</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -8187,15 +8187,15 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C392">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -8207,15 +8207,15 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C393">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -8227,15 +8227,15 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C394">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -8247,13 +8247,93 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
+          <t>cod.27.24-32</t>
+        </is>
+      </c>
+      <c r="C395">
+        <v>39.99999999999999</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Torsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Ålfiske_Passivt_Östersjön</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>cod.27.46a7d20</t>
+        </is>
+      </c>
+      <c r="C396">
+        <v>105</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Torsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Ålfiske_Passivt_Östersjön</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>cod.27.22-24</t>
+        </is>
+      </c>
+      <c r="C397">
+        <v>205</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Torsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Ålfiske_Passivt_Östersjön</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>sol.27.20-24</t>
+        </is>
+      </c>
+      <c r="C398">
+        <v>100</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Äkta tunga</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Ålfiske_Passivt_Östersjön</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
           <t>trs.27.22-32</t>
         </is>
       </c>
-      <c r="C395">
+      <c r="C399">
         <v>1160</v>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="D399" t="inlineStr">
         <is>
           <t>Öring</t>
         </is>

--- a/output/2023/HaV/table1.xlsx
+++ b/output/2023/HaV/table1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D399"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,15 +407,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C3">
-        <v>91172.89999999954</v>
+        <v>151</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
@@ -427,15 +427,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>692.1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -447,15 +447,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C5">
-        <v>692.1</v>
+        <v>1019138.500000002</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -467,15 +467,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C6">
-        <v>1019138.500000002</v>
+        <v>647757.1000000027</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -487,15 +487,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C7">
-        <v>34366.29999999999</v>
+        <v>12852.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -507,15 +507,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C8">
-        <v>647757.1000000027</v>
+        <v>1143.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -527,15 +527,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C9">
-        <v>12852.4</v>
+        <v>532579.000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -547,15 +547,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C10">
-        <v>1143.4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -567,15 +567,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C11">
-        <v>532579.000000001</v>
+        <v>88437.20000000013</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -587,15 +587,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>79617.50000000028</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -607,15 +607,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C13">
-        <v>88437.20000000013</v>
+        <v>2426.000000000001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -627,15 +627,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C14">
-        <v>79617.50000000028</v>
+        <v>435003.5000000003</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -647,15 +647,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C15">
-        <v>2426.000000000001</v>
+        <v>400</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -667,15 +667,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C16">
-        <v>435003.5000000003</v>
+        <v>36613.40000000002</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -687,15 +687,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>tur.27.4</t>
         </is>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>1125.199999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -707,15 +707,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C18">
-        <v>36613.40000000002</v>
+        <v>3094.599999999996</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -727,15 +727,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C19">
-        <v>1125.199999999999</v>
+        <v>58414.59999999985</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -747,15 +747,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C20">
-        <v>3094.599999999996</v>
+        <v>415.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -767,15 +767,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C21">
-        <v>53382.09999999987</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -787,15 +787,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C22">
-        <v>13360.39999999999</v>
+        <v>673.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -807,15 +807,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C23">
-        <v>58414.59999999985</v>
+        <v>19</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -827,15 +827,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C24">
-        <v>415.8</v>
+        <v>5621.799999999994</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -847,15 +847,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C25">
-        <v>1689.8</v>
+        <v>1099.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -867,15 +867,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C26">
-        <v>77.59999999999999</v>
+        <v>738786.8999999976</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -887,15 +887,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C27">
-        <v>673.4</v>
+        <v>3174.500000000001</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -907,15 +907,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>11407.60000000001</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -927,15 +927,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C29">
-        <v>5621.799999999994</v>
+        <v>28930.20000000014</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -947,15 +947,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C30">
-        <v>1099.7</v>
+        <v>2366.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -967,115 +967,115 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C31">
-        <v>738786.8999999976</v>
+        <v>1584.600000000001</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C32">
-        <v>3174.500000000001</v>
+        <v>5949.400000000035</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C33">
-        <v>11407.60000000001</v>
+        <v>151</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C34">
-        <v>28930.20000000014</v>
+        <v>692.1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C35">
-        <v>2366.6</v>
+        <v>1019138.500000002</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C36">
-        <v>1584.600000000001</v>
+        <v>647757.1000000027</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -1087,15 +1087,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C37">
-        <v>5949.400000000035</v>
+        <v>12852.4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -1107,15 +1107,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C38">
-        <v>91172.89999999954</v>
+        <v>1143.4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -1127,15 +1127,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C39">
-        <v>151</v>
+        <v>532579.000000001</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -1147,15 +1147,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C40">
-        <v>692.1</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -1167,15 +1167,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C41">
-        <v>1019138.500000002</v>
+        <v>88437.20000000013</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -1187,15 +1187,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C42">
-        <v>34366.29999999999</v>
+        <v>79617.50000000028</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -1207,15 +1207,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C43">
-        <v>647757.1000000027</v>
+        <v>2426.000000000001</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -1227,15 +1227,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C44">
-        <v>12852.4</v>
+        <v>435003.5000000003</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -1247,15 +1247,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C45">
-        <v>1143.4</v>
+        <v>400</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C46">
-        <v>532579.000000001</v>
+        <v>36613.40000000002</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -1287,15 +1287,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>tur.27.4</t>
         </is>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>1125.199999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C48">
-        <v>88437.20000000013</v>
+        <v>3094.599999999996</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C49">
-        <v>79617.50000000028</v>
+        <v>58414.59999999985</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -1347,15 +1347,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C50">
-        <v>2426.000000000001</v>
+        <v>415.8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -1367,15 +1367,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C51">
-        <v>435003.5000000003</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -1387,15 +1387,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C52">
-        <v>400</v>
+        <v>673.4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C53">
-        <v>36613.40000000002</v>
+        <v>19</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -1427,15 +1427,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C54">
-        <v>1125.199999999999</v>
+        <v>5621.799999999994</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -1447,15 +1447,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C55">
-        <v>3094.599999999996</v>
+        <v>1099.7</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -1467,15 +1467,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C56">
-        <v>53382.09999999987</v>
+        <v>738786.8999999976</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -1487,15 +1487,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C57">
-        <v>13360.39999999999</v>
+        <v>3174.500000000001</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -1507,15 +1507,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C58">
-        <v>58414.59999999985</v>
+        <v>11407.60000000001</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -1527,15 +1527,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C59">
-        <v>415.8</v>
+        <v>28930.20000000014</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -1547,15 +1547,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C60">
-        <v>1689.8</v>
+        <v>2366.6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -1567,215 +1567,215 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C61">
-        <v>77.59999999999999</v>
+        <v>1584.600000000001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C62">
-        <v>673.4</v>
+        <v>4233.899999999991</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C63">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C64">
-        <v>5621.799999999994</v>
+        <v>2.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C65">
-        <v>1099.7</v>
+        <v>992519.3000000013</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C66">
-        <v>738786.8999999976</v>
+        <v>33027.00000000003</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C67">
-        <v>3174.500000000001</v>
+        <v>12371.4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C68">
-        <v>11407.60000000001</v>
+        <v>384.3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C69">
-        <v>28930.20000000014</v>
+        <v>460708.1000000002</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C70">
-        <v>2366.6</v>
+        <v>79276.80000000008</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C71">
-        <v>1584.600000000001</v>
+        <v>76680.30000000009</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -1787,15 +1787,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C72">
-        <v>4233.899999999991</v>
+        <v>1667.7</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -1807,15 +1807,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C73">
-        <v>87514.49999999965</v>
+        <v>404738.9000000004</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -1827,15 +1827,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C74">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -1847,15 +1847,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2266.8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -1867,15 +1867,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>tur.27.4</t>
         </is>
       </c>
       <c r="C76">
-        <v>992519.3000000013</v>
+        <v>1116.399999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -1887,15 +1887,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C77">
-        <v>33065.39999999999</v>
+        <v>638.6000000000004</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -1907,15 +1907,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C78">
-        <v>33027.00000000003</v>
+        <v>48671</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -1927,15 +1927,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C79">
-        <v>12371.4</v>
+        <v>27.8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -1947,15 +1947,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C80">
-        <v>384.3</v>
+        <v>45.6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -1967,15 +1967,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C81">
-        <v>460708.1000000002</v>
+        <v>7.6</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -1987,15 +1987,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C82">
-        <v>79276.80000000008</v>
+        <v>6</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -2007,15 +2007,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C83">
-        <v>76680.30000000009</v>
+        <v>158.4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -2027,15 +2027,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C84">
-        <v>1667.7</v>
+        <v>627</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -2047,15 +2047,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C85">
-        <v>404738.9000000004</v>
+        <v>615047.1999999984</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2067,15 +2067,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C86">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2087,15 +2087,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C87">
-        <v>2266.8</v>
+        <v>11394.40000000001</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -2107,15 +2107,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C88">
-        <v>1116.399999999999</v>
+        <v>13723.29999999998</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -2127,15 +2127,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C89">
-        <v>638.6000000000004</v>
+        <v>1800.4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -2147,295 +2147,295 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C90">
-        <v>35671.79999999992</v>
+        <v>17</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C91">
-        <v>35</v>
+        <v>29.6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C92">
-        <v>48671</v>
+        <v>50</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C93">
-        <v>27.8</v>
+        <v>918.7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C94">
-        <v>45.6</v>
+        <v>2.2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C95">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C97">
-        <v>158.4</v>
+        <v>133.5</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C98">
-        <v>627</v>
+        <v>19677</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C99">
-        <v>615047.1999999984</v>
+        <v>1098.7</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C101">
-        <v>11394.40000000001</v>
+        <v>425</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C102">
-        <v>13723.29999999998</v>
+        <v>5252.5</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C103">
-        <v>1800.4</v>
+        <v>10424</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>7242</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -2447,15 +2447,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C105">
-        <v>29.6</v>
+        <v>32384.79999999999</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -2467,15 +2467,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C106">
-        <v>7401.5</v>
+        <v>3385.6</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -2487,15 +2487,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C107">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C108">
-        <v>918.7</v>
+        <v>301</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -2527,15 +2527,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C109">
-        <v>462.7</v>
+        <v>2356.2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -2547,15 +2547,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C110">
-        <v>2.2</v>
+        <v>2892.1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -2567,15 +2567,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C111">
-        <v>14.5</v>
+        <v>8584.700000000001</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -2587,15 +2587,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>12772.6</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -2607,15 +2607,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C113">
-        <v>133.5</v>
+        <v>1869.5</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -2627,15 +2627,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C114">
-        <v>19677</v>
+        <v>10620.8</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -2647,15 +2647,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C115">
-        <v>1098.7</v>
+        <v>7178.800000000002</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -2667,15 +2667,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>846.5</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -2687,15 +2687,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C117">
-        <v>425</v>
+        <v>1801.5</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -2707,15 +2707,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C118">
-        <v>5252.5</v>
+        <v>11824.20000000002</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2727,15 +2727,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C119">
-        <v>10424</v>
+        <v>4566.199999999996</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2747,15 +2747,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C120">
-        <v>7242</v>
+        <v>13200.20000000001</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2767,15 +2767,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C121">
-        <v>32384.79999999999</v>
+        <v>174.2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -2787,15 +2787,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C122">
-        <v>3385.6</v>
+        <v>5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -2807,15 +2807,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C123">
-        <v>9849.799999999999</v>
+        <v>2503.5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
@@ -2827,15 +2827,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C124">
-        <v>2837.4</v>
+        <v>2164.7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -2847,455 +2847,455 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>btrout.27.3a</t>
         </is>
       </c>
       <c r="C125">
-        <v>461.2</v>
+        <v>40</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>29.6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C127">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C128">
-        <v>2356.2</v>
+        <v>918.7</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C130">
-        <v>257</v>
+        <v>14.5</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C131">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C132">
-        <v>2892.1</v>
+        <v>133.5</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C133">
-        <v>8584.700000000001</v>
+        <v>19677</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C134">
-        <v>12772.6</v>
+        <v>1098.7</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C135">
-        <v>1869.5</v>
+        <v>7</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C136">
-        <v>10620.8</v>
+        <v>425</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C137">
-        <v>7178.800000000002</v>
+        <v>5579</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C138">
-        <v>846.5</v>
+        <v>10424</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C139">
-        <v>1801.5</v>
+        <v>7242</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C140">
-        <v>11824.20000000002</v>
+        <v>32430.09999999999</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C141">
-        <v>4566.199999999996</v>
+        <v>3385.6</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C142">
-        <v>13200.20000000001</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C143">
-        <v>174.2</v>
+        <v>301</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>2356.2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C145">
-        <v>2503.5</v>
+        <v>2892.1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C146">
-        <v>2164.7</v>
+        <v>8636.700000000001</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C147">
-        <v>40</v>
+        <v>13106.6</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3307,15 +3307,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C148">
-        <v>29.6</v>
+        <v>1869.5</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3327,15 +3327,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C149">
-        <v>7401.5</v>
+        <v>10853.8</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3347,15 +3347,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C150">
-        <v>50</v>
+        <v>7406.800000000002</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -3367,15 +3367,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C151">
-        <v>918.7</v>
+        <v>846.5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -3387,15 +3387,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C152">
-        <v>462.7</v>
+        <v>1801.5</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -3407,15 +3407,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C153">
-        <v>2.2</v>
+        <v>12449.20000000002</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -3427,15 +3427,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C154">
-        <v>14.5</v>
+        <v>4570.399999999996</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -3447,15 +3447,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>13200.20000000001</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -3467,15 +3467,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C156">
-        <v>133.5</v>
+        <v>174.2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -3487,15 +3487,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C157">
-        <v>19677</v>
+        <v>5</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C158">
-        <v>1098.7</v>
+        <v>2503.5</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
@@ -3527,15 +3527,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>2388.7</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
@@ -3547,1062 +3547,1062 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>btrout.27.3a</t>
         </is>
       </c>
       <c r="C160">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C161">
-        <v>5579</v>
+        <v>68</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C162">
-        <v>10424</v>
+        <v>60229.1</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C163">
-        <v>7242</v>
+        <v>47111.5</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C164">
-        <v>32430.09999999999</v>
+        <v>4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C165">
-        <v>3385.6</v>
+        <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C166">
-        <v>9861.799999999999</v>
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C167">
-        <v>2837.4</v>
+        <v>274550.4000000007</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C168">
-        <v>461.2</v>
+        <v>541.2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>10277.1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C170">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C171">
-        <v>2356.2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C172">
-        <v>149.5</v>
+        <v>30</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C173">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C174">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C175">
-        <v>2892.1</v>
+        <v>7</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C176">
-        <v>8636.700000000001</v>
+        <v>12</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C177">
-        <v>13106.6</v>
+        <v>56</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C178">
-        <v>1869.5</v>
+        <v>452.9999999999997</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C179">
-        <v>10853.8</v>
+        <v>139</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C180">
-        <v>7406.800000000002</v>
+        <v>199.5</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C181">
-        <v>846.5</v>
+        <v>32</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C182">
-        <v>1801.5</v>
+        <v>672.4999999999999</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C183">
-        <v>12449.20000000002</v>
+        <v>793021.0999999996</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C184">
-        <v>4570.399999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C185">
-        <v>13200.20000000001</v>
+        <v>128.3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C186">
-        <v>174.2</v>
+        <v>2365.600000000001</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>101.6</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C188">
-        <v>2503.5</v>
+        <v>719.7</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C189">
-        <v>2388.7</v>
+        <v>124.7</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C190">
-        <v>40</v>
+        <v>713.1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C191">
-        <v>68</v>
+        <v>618.1999999999998</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C192">
-        <v>60229.1</v>
+        <v>1581.5</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C193">
-        <v>47111.5</v>
+        <v>1094.7</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>630.8999999999995</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>279.2999999999999</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1346.1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C197">
-        <v>55</v>
+        <v>391.4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C198">
-        <v>274550.4000000007</v>
+        <v>95</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C199">
-        <v>541.2</v>
+        <v>3165.399999999998</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C200">
-        <v>10277.1</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C201">
-        <v>358</v>
+        <v>2273.399999999999</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>503.2999999999998</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C203">
-        <v>30</v>
+        <v>2184.200000000006</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C204">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>750.900000000001</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>116006.8</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C207">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C208">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C209">
-        <v>452.9999999999997</v>
+        <v>171</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C210">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C211">
-        <v>199.5</v>
+        <v>3821.600000000001</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pol.27.3a4</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C212">
-        <v>10.3</v>
+        <v>360500</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Bleka</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>32</v>
+        <v>368</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>672.4999999999999</v>
+        <v>6930</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4642,1256 +4642,1256 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>caa.27.3a46</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C215">
-        <v>76.99999999999999</v>
+        <v>3650</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Havskatt</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C216">
-        <v>793021.0999999996</v>
+        <v>47130</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C217">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C218">
-        <v>128.3</v>
+        <v>2032925</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C219">
-        <v>2365.600000000001</v>
+        <v>20</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C220">
-        <v>101.6</v>
+        <v>220</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C221">
-        <v>719.7</v>
+        <v>706</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C222">
-        <v>124.7</v>
+        <v>75</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C223">
-        <v>713.1</v>
+        <v>4092</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>lumpsucker.27</t>
         </is>
       </c>
       <c r="C224">
-        <v>618.1999999999998</v>
+        <v>864</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C225">
-        <v>1581.5</v>
+        <v>44256010</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C226">
-        <v>1094.7</v>
+        <v>9239606</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C227">
-        <v>630.8999999999995</v>
+        <v>11073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C228">
-        <v>1432.799999999999</v>
+        <v>35</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ple.27.21-23</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C229">
-        <v>765.8000000000009</v>
+        <v>3595</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C230">
-        <v>279.2999999999999</v>
+        <v>300</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C231">
-        <v>1346.1</v>
+        <v>1050</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>hom.27.2a4a5b6a7a-ce-k8</t>
         </is>
       </c>
       <c r="C232">
-        <v>334.4</v>
+        <v>7958</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C233">
-        <v>391.4</v>
+        <v>9625</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C234">
-        <v>95</v>
+        <v>2153</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C235">
-        <v>3165.399999999998</v>
+        <v>147</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C237">
-        <v>2273.399999999999</v>
+        <v>38570</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C238">
-        <v>503.2999999999998</v>
+        <v>782</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C239">
-        <v>2184.200000000006</v>
+        <v>11710</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C240">
-        <v>21</v>
+        <v>360500</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C241">
-        <v>750.900000000001</v>
+        <v>368</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C242">
-        <v>116006.8</v>
+        <v>6930</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C243">
-        <v>30</v>
+        <v>3650</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C244">
-        <v>90</v>
+        <v>47130</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C245">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C246">
-        <v>16</v>
+        <v>2032898</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C247">
-        <v>3821.600000000001</v>
+        <v>20</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C248">
-        <v>360500</v>
+        <v>220</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C249">
-        <v>368</v>
+        <v>706</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C250">
-        <v>6930</v>
+        <v>75</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C251">
-        <v>3650</v>
+        <v>4092</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>lumpsucker.27</t>
         </is>
       </c>
       <c r="C252">
-        <v>47130</v>
+        <v>864</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>44256010</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C254">
-        <v>2032925</v>
+        <v>9180456</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C255">
-        <v>20</v>
+        <v>11073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C256">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C257">
-        <v>10</v>
+        <v>3595</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C259">
-        <v>706</v>
+        <v>1050</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>hom.27.2a4a5b6a7a-ce-k8</t>
         </is>
       </c>
       <c r="C260">
-        <v>75</v>
+        <v>7958</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C261">
-        <v>4092</v>
+        <v>9625</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C262">
-        <v>12792425.99999999</v>
+        <v>2153</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C263">
-        <v>21890854.99999999</v>
+        <v>147</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C264">
-        <v>10761656</v>
+        <v>180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C265">
-        <v>274410.0000000001</v>
+        <v>38570</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>lumpsucker.27</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C266">
-        <v>864</v>
+        <v>782</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C267">
-        <v>44256010</v>
+        <v>11710</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C268">
-        <v>9239606</v>
+        <v>9</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C269">
-        <v>11073</v>
+        <v>20</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C270">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C271">
-        <v>3595</v>
+        <v>4</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C272">
-        <v>300</v>
+        <v>168976.5</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C273">
-        <v>1050</v>
+        <v>337</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C274">
-        <v>7958</v>
+        <v>1250</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C275">
-        <v>9625</v>
+        <v>46</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>san.27.3a4</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C276">
-        <v>26015000</v>
+        <v>50</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Tobis</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C277">
-        <v>2153</v>
+        <v>0.6</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5902,16 +5902,16 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C278">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5922,16 +5922,16 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C279">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5942,16 +5942,16 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C280">
-        <v>38570</v>
+        <v>7</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5962,667 +5962,667 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C281">
-        <v>782</v>
+        <v>34</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C282">
-        <v>11710</v>
+        <v>9</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C283">
-        <v>360500</v>
+        <v>20</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C284">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C285">
-        <v>6930</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C286">
-        <v>3650</v>
+        <v>168976.5</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C287">
-        <v>47130</v>
+        <v>337</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C288">
-        <v>7</v>
+        <v>12317</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C289">
-        <v>2032898</v>
+        <v>46</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C290">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C291">
-        <v>220</v>
+        <v>0.6</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ple.27.420</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C292">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ple.27.24-32</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Rödspotta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C294">
-        <v>706</v>
+        <v>7</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C295">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C296">
-        <v>4092</v>
+        <v>16.5</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C297">
-        <v>12792425.99999999</v>
+        <v>91</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C298">
-        <v>21823754.99999999</v>
+        <v>53919.20000000011</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C299">
-        <v>10761656</v>
+        <v>6189.200000000002</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C300">
-        <v>274410.0000000001</v>
+        <v>1345.7</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>lumpsucker.27</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C301">
-        <v>864</v>
+        <v>6.7</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C302">
-        <v>44256010</v>
+        <v>8499.900000000025</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C303">
-        <v>9180456</v>
+        <v>4284.100000000001</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C304">
-        <v>11073</v>
+        <v>8346.199999999993</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C305">
-        <v>35</v>
+        <v>8.5</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C306">
-        <v>3595</v>
+        <v>11820.29999999999</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C307">
-        <v>300</v>
+        <v>937569.199999998</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C308">
-        <v>1050</v>
+        <v>54</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C309">
-        <v>7958</v>
+        <v>27.8</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C310">
-        <v>9625</v>
+        <v>2901.399999999989</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>san.27.3a4</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C311">
-        <v>26015000</v>
+        <v>10</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Tobis</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>rng.27.3a</t>
         </is>
       </c>
       <c r="C312">
-        <v>2153</v>
+        <v>1000</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skoläst</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C313">
-        <v>147</v>
+        <v>7.1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6631,7 +6631,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>180</v>
+        <v>28421.89999999999</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6642,36 +6642,36 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C315">
-        <v>38570</v>
+        <v>11.2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>whg.27.47d</t>
         </is>
       </c>
       <c r="C316">
-        <v>782</v>
+        <v>1.3</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6682,296 +6682,296 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C317">
-        <v>11710</v>
+        <v>428.5</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C318">
-        <v>9</v>
+        <v>32929.5</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Siklöjefiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C319">
-        <v>20</v>
+        <v>1239670</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C322">
-        <v>168976.5</v>
+        <v>5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C323">
-        <v>337</v>
+        <v>2.5</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ven.27.3031</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C324">
-        <v>1250</v>
+        <v>1436</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Siklöja</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>her.27.3031</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C325">
-        <v>233007</v>
+        <v>53</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>her.27.25-2932</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C326">
-        <v>78962.99999999996</v>
+        <v>165</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>her.27.3a47d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C327">
-        <v>11239</v>
+        <v>5</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>her.27.20-24</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C328">
-        <v>272861</v>
+        <v>25</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Sill/Strömming</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>spr.27.22-32</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C329">
-        <v>46</v>
+        <v>39.99999999999999</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>spr.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C330">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Skarpsill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C331">
-        <v>0.6</v>
+        <v>205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6982,1358 +6982,38 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C332">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C333">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="D333" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C334">
-        <v>7</v>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C335">
-        <v>34</v>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Öring</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>greatrweaver.27.3a4</t>
-        </is>
-      </c>
-      <c r="C336">
-        <v>9</v>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Fjärsing</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C337">
-        <v>20</v>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C338">
-        <v>3</v>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>sal.27.22-31</t>
-        </is>
-      </c>
-      <c r="C339">
-        <v>4</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Lax</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C340">
-        <v>168976.5</v>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C341">
-        <v>337</v>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C342">
-        <v>12317</v>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>her.27.3031</t>
-        </is>
-      </c>
-      <c r="C343">
-        <v>233457</v>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>her.27.25-2932</t>
-        </is>
-      </c>
-      <c r="C344">
-        <v>78962.99999999996</v>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>her.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C345">
-        <v>11239</v>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>her.27.20-24</t>
-        </is>
-      </c>
-      <c r="C346">
-        <v>272861</v>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>spr.27.22-32</t>
-        </is>
-      </c>
-      <c r="C347">
-        <v>46</v>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>spr.27.3a4</t>
-        </is>
-      </c>
-      <c r="C348">
-        <v>50</v>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C349">
-        <v>0.6</v>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C350">
-        <v>9</v>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C351">
-        <v>4</v>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C352">
-        <v>7</v>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C353">
-        <v>34</v>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>Öring</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>lem.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C354">
-        <v>16.5</v>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Bergtunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>pol.27.3a4</t>
-        </is>
-      </c>
-      <c r="C355">
-        <v>819.5999999999998</v>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>Bleka</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>whb.27.1-91214</t>
-        </is>
-      </c>
-      <c r="C356">
-        <v>91</v>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>Blåvitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C357">
-        <v>53919.20000000011</v>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>caa.27.3a46</t>
-        </is>
-      </c>
-      <c r="C358">
-        <v>7.8</v>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Havskatt</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>nep.fu.3-4</t>
-        </is>
-      </c>
-      <c r="C359">
-        <v>6189.200000000002</v>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Havskräfta</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>halibut.27</t>
-        </is>
-      </c>
-      <c r="C360">
-        <v>1345.7</v>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Hälleflundra</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C361">
-        <v>6.7</v>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>had.27.46a20</t>
-        </is>
-      </c>
-      <c r="C362">
-        <v>8499.900000000025</v>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Kolja</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>hke.27.3a46-8abd</t>
-        </is>
-      </c>
-      <c r="C363">
-        <v>4284.100000000001</v>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Kummel</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>lin.27.346-91214</t>
-        </is>
-      </c>
-      <c r="C364">
-        <v>8346.199999999993</v>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>Långa</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C365">
-        <v>8.5</v>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>anf.27.3a46</t>
-        </is>
-      </c>
-      <c r="C366">
-        <v>11820.29999999999</v>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Marulk</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>pra.27.3a4a</t>
-        </is>
-      </c>
-      <c r="C367">
-        <v>937569.199999998</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>Nordhavsräka</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C368">
-        <v>54</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>tur.27.3a</t>
-        </is>
-      </c>
-      <c r="C369">
-        <v>27.8</v>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Piggvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>ple.27.420</t>
-        </is>
-      </c>
-      <c r="C370">
-        <v>470.1000000000005</v>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>Rödspotta</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>ple.27.21-23</t>
-        </is>
-      </c>
-      <c r="C371">
-        <v>54.1</v>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>Rödspotta</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>wit.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C372">
-        <v>2901.399999999989</v>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>Rödtunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>her.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C373">
-        <v>419</v>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>lumpsucker.27.23.3a</t>
-        </is>
-      </c>
-      <c r="C374">
-        <v>10</v>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>rng.27.3a</t>
-        </is>
-      </c>
-      <c r="C375">
-        <v>1000</v>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Skoläst</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>bll.27.3a47de</t>
-        </is>
-      </c>
-      <c r="C376">
-        <v>7.1</v>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Slätvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C377">
-        <v>28421.89999999999</v>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>cod.27.21</t>
-        </is>
-      </c>
-      <c r="C378">
-        <v>11.2</v>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>whg.27.47d</t>
-        </is>
-      </c>
-      <c r="C379">
-        <v>1.3</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C380">
-        <v>428.5</v>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>nop.27.3a4</t>
-        </is>
-      </c>
-      <c r="C381">
-        <v>32929.5</v>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>Vitlinglyra</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Siklöjefiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C382">
-        <v>1239670</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Siklöjefiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>her.27.3031</t>
-        </is>
-      </c>
-      <c r="C383">
-        <v>145617.0000000001</v>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>bcrab.27.3a</t>
-        </is>
-      </c>
-      <c r="C384">
-        <v>74</v>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>Krabbtaska</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>tur.27.22-32</t>
-        </is>
-      </c>
-      <c r="C385">
-        <v>1</v>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>Piggvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>ple.27.420</t>
-        </is>
-      </c>
-      <c r="C386">
-        <v>0.4</v>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>Rödspotta</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>dab.27.22-32</t>
-        </is>
-      </c>
-      <c r="C387">
-        <v>5</v>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>her.27.25-2932</t>
-        </is>
-      </c>
-      <c r="C388">
-        <v>188</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>Sill/Strömming</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>lumpsucker.27.23.3a</t>
-        </is>
-      </c>
-      <c r="C389">
-        <v>2.5</v>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
-        </is>
-      </c>
-      <c r="C390">
-        <v>1436</v>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>bzq.27.2425</t>
-        </is>
-      </c>
-      <c r="C391">
-        <v>53</v>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>fle.27.2223</t>
-        </is>
-      </c>
-      <c r="C392">
-        <v>165</v>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>fle.27.3a4</t>
-        </is>
-      </c>
-      <c r="C393">
-        <v>5</v>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>cod.27.21</t>
-        </is>
-      </c>
-      <c r="C394">
-        <v>25</v>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C395">
-        <v>39.99999999999999</v>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C396">
-        <v>105</v>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C397">
-        <v>205</v>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>sol.27.20-24</t>
-        </is>
-      </c>
-      <c r="C398">
-        <v>100</v>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>Äkta tunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C399">
-        <v>1160</v>
-      </c>
-      <c r="D399" t="inlineStr">
         <is>
           <t>Öring</t>
         </is>

--- a/output/2023/HaV/table1.xlsx
+++ b/output/2023/HaV/table1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>5949.400000000035</v>
+        <v>2633.099999999988</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1019138.500000002</v>
+        <v>153131.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>12852.4</v>
+        <v>1372.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>1143.4</v>
+        <v>1066.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>532579.000000001</v>
+        <v>346667.6000000003</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>88437.20000000013</v>
+        <v>60477.19999999993</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>79617.50000000028</v>
+        <v>15225.49999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2426.000000000001</v>
+        <v>1368</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>435003.5000000003</v>
+        <v>87194.60000000002</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>36613.40000000002</v>
+        <v>36608.40000000002</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C17">
-        <v>1125.199999999999</v>
+        <v>3094.599999999996</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -707,15 +707,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C18">
-        <v>3094.599999999996</v>
+        <v>54778.49999999985</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -727,15 +727,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C19">
-        <v>58414.59999999985</v>
+        <v>415.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -747,15 +747,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C20">
-        <v>415.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -767,15 +767,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C21">
-        <v>77.59999999999999</v>
+        <v>673.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -787,15 +787,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C22">
-        <v>673.4</v>
+        <v>19</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -807,15 +807,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>5567.899999999993</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -827,15 +827,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C24">
-        <v>5621.799999999994</v>
+        <v>988.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -847,15 +847,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C25">
-        <v>1099.7</v>
+        <v>342107.7999999993</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -867,11 +867,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C26">
-        <v>738786.8999999976</v>
+        <v>3174.500000000001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -887,15 +887,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C27">
-        <v>3174.500000000001</v>
+        <v>28930.20000000014</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -907,15 +907,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C28">
-        <v>11407.60000000001</v>
+        <v>1931.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -927,55 +927,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C29">
-        <v>28930.20000000014</v>
+        <v>1584.600000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C30">
-        <v>2366.6</v>
+        <v>2633.099999999988</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Demersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C31">
-        <v>1584.600000000001</v>
+        <v>151</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
@@ -987,15 +987,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C32">
-        <v>5949.400000000035</v>
+        <v>692.1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
@@ -1007,15 +1007,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C33">
-        <v>151</v>
+        <v>153131.1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
@@ -1027,15 +1027,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C34">
-        <v>692.1</v>
+        <v>647757.1000000027</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
@@ -1047,15 +1047,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C35">
-        <v>1019138.500000002</v>
+        <v>1372.4</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
@@ -1067,15 +1067,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C36">
-        <v>647757.1000000027</v>
+        <v>1066.1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
@@ -1087,15 +1087,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C37">
-        <v>12852.4</v>
+        <v>346667.6000000003</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
@@ -1107,15 +1107,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C38">
-        <v>1143.4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
@@ -1127,15 +1127,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C39">
-        <v>532579.000000001</v>
+        <v>60477.19999999993</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
@@ -1147,15 +1147,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>15225.49999999999</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
@@ -1167,15 +1167,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C41">
-        <v>88437.20000000013</v>
+        <v>1368</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
@@ -1187,15 +1187,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C42">
-        <v>79617.50000000028</v>
+        <v>87194.60000000002</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
@@ -1207,15 +1207,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C43">
-        <v>2426.000000000001</v>
+        <v>400</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
@@ -1227,15 +1227,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C44">
-        <v>435003.5000000003</v>
+        <v>36608.40000000002</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
@@ -1247,15 +1247,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>3094.599999999996</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C46">
-        <v>36613.40000000002</v>
+        <v>54778.49999999985</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
@@ -1287,15 +1287,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C47">
-        <v>1125.199999999999</v>
+        <v>415.8</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C48">
-        <v>3094.599999999996</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C49">
-        <v>58414.59999999985</v>
+        <v>673.4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
@@ -1347,15 +1347,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C50">
-        <v>415.8</v>
+        <v>19</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
@@ -1367,15 +1367,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C51">
-        <v>77.59999999999999</v>
+        <v>5567.899999999993</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
@@ -1387,15 +1387,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C52">
-        <v>673.4</v>
+        <v>988.7</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>342107.7999999993</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -1427,15 +1427,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C54">
-        <v>5621.799999999994</v>
+        <v>3174.500000000001</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
@@ -1447,15 +1447,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C55">
-        <v>1099.7</v>
+        <v>28930.20000000014</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
@@ -1467,15 +1467,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C56">
-        <v>738786.8999999976</v>
+        <v>1931.6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
@@ -1487,2411 +1487,2411 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C57">
-        <v>3174.500000000001</v>
+        <v>1584.600000000001</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C58">
-        <v>11407.60000000001</v>
+        <v>29.6</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C59">
-        <v>28930.20000000014</v>
+        <v>50</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C60">
-        <v>2366.6</v>
+        <v>918.7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C61">
-        <v>1584.600000000001</v>
+        <v>2.2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C62">
-        <v>4233.899999999991</v>
+        <v>14.5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>133.5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C65">
-        <v>992519.3000000013</v>
+        <v>19677</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C66">
-        <v>33027.00000000003</v>
+        <v>1098.7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C67">
-        <v>12371.4</v>
+        <v>425</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C68">
-        <v>384.3</v>
+        <v>4140.5</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C69">
-        <v>460708.1000000002</v>
+        <v>10424</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C70">
-        <v>79276.80000000008</v>
+        <v>7240</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C71">
-        <v>76680.30000000009</v>
+        <v>3385.6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C72">
-        <v>1667.7</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C73">
-        <v>404738.9000000004</v>
+        <v>301</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C74">
-        <v>400</v>
+        <v>824</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C75">
-        <v>2266.8</v>
+        <v>1869.5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tur.27.4</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C76">
-        <v>1116.399999999999</v>
+        <v>846.5</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C77">
-        <v>638.6000000000004</v>
+        <v>13200.20000000001</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C78">
-        <v>48671</v>
+        <v>174.2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C79">
-        <v>27.8</v>
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C80">
-        <v>45.6</v>
+        <v>2006.9</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>btrout.27.3a</t>
         </is>
       </c>
       <c r="C81">
-        <v>7.6</v>
+        <v>40</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C83">
-        <v>158.4</v>
+        <v>1438.5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C84">
-        <v>627</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C85">
-        <v>615047.1999999984</v>
+        <v>32430.09999999999</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>2356.2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>whg.27.47d</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C87">
-        <v>11394.40000000001</v>
+        <v>2068.1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C88">
-        <v>13723.29999999998</v>
+        <v>8636.700000000001</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C89">
-        <v>1800.4</v>
+        <v>13106.6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Aktivt_Östersjön</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>10853.8</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C91">
-        <v>29.6</v>
+        <v>7406.800000000002</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>1801.5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C93">
-        <v>918.7</v>
+        <v>12449.20000000002</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C94">
-        <v>2.2</v>
+        <v>4570.399999999996</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C95">
-        <v>14.5</v>
+        <v>496.6000000000001</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Dermersalt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>2388.7</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C97">
-        <v>133.5</v>
+        <v>68</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C98">
-        <v>19677</v>
+        <v>60229.1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C99">
-        <v>1098.7</v>
+        <v>47111.5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Hummerfiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C101">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C102">
-        <v>5252.5</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C103">
-        <v>10424</v>
+        <v>274550.4000000007</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>lobster.27.3a</t>
         </is>
       </c>
       <c r="C104">
-        <v>7242</v>
+        <v>541.2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Hummer</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C105">
-        <v>32384.79999999999</v>
+        <v>10277.1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C106">
-        <v>3385.6</v>
+        <v>358</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C108">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C109">
-        <v>2356.2</v>
+        <v>8</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C110">
-        <v>2892.1</v>
+        <v>5</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C111">
-        <v>8584.700000000001</v>
+        <v>7</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C112">
-        <v>12772.6</v>
+        <v>12</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C113">
-        <v>1869.5</v>
+        <v>56</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C114">
-        <v>10620.8</v>
+        <v>452.9999999999997</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftburar_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C115">
-        <v>7178.800000000002</v>
+        <v>139</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C116">
-        <v>846.5</v>
+        <v>199.5</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C117">
-        <v>1801.5</v>
+        <v>32</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C118">
-        <v>11824.20000000002</v>
+        <v>672.4999999999999</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C119">
-        <v>4566.199999999996</v>
+        <v>793021.0999999996</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C120">
-        <v>13200.20000000001</v>
+        <v>5.3</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C121">
-        <v>174.2</v>
+        <v>128.3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>2365.600000000001</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>bcrab.27.3a</t>
         </is>
       </c>
       <c r="C123">
-        <v>2503.5</v>
+        <v>101.6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Krabbtaska</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C124">
-        <v>2164.7</v>
+        <v>719.7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Västerhavet</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>124.7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C126">
-        <v>29.6</v>
+        <v>713.1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C127">
-        <v>50</v>
+        <v>618.1999999999998</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C128">
-        <v>918.7</v>
+        <v>1581.5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C129">
-        <v>2.2</v>
+        <v>1094.7</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C130">
-        <v>14.5</v>
+        <v>630.8999999999995</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>279.2999999999999</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C132">
-        <v>133.5</v>
+        <v>1346.1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>fle.27.3a4</t>
         </is>
       </c>
       <c r="C133">
-        <v>19677</v>
+        <v>391.4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>rockor</t>
         </is>
       </c>
       <c r="C134">
-        <v>1098.7</v>
+        <v>95</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Slätrocka</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>3165.399999999998</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C136">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C137">
-        <v>5579</v>
+        <v>2273.399999999999</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C138">
-        <v>10424</v>
+        <v>503.2999999999998</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C139">
-        <v>7242</v>
+        <v>2184.200000000006</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C140">
-        <v>32430.09999999999</v>
+        <v>21</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C141">
-        <v>3385.6</v>
+        <v>750.900000000001</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>116006.8</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C143">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>dab.27.22-32</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C144">
-        <v>2356.2</v>
+        <v>90</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C145">
-        <v>2892.1</v>
+        <v>171</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C146">
-        <v>8636.700000000001</v>
+        <v>16</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Laxfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C147">
-        <v>13106.6</v>
+        <v>3821.600000000001</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C148">
-        <v>1869.5</v>
+        <v>3000</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>fle.27.2223</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C149">
-        <v>10853.8</v>
+        <v>368</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>bzq.27.2628</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C150">
-        <v>7406.800000000002</v>
+        <v>50</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C151">
-        <v>846.5</v>
+        <v>10</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>bll.27.22-32</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C152">
-        <v>1801.5</v>
+        <v>20</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>cod.27.24-32</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C153">
-        <v>12449.20000000002</v>
+        <v>1690</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C154">
-        <v>4570.399999999996</v>
+        <v>220</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>dab.27.3a4</t>
         </is>
       </c>
       <c r="C155">
-        <v>13200.20000000001</v>
+        <v>231</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C156">
-        <v>174.2</v>
+        <v>64406.00000000001</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>hom.27.3a4bc7d</t>
         </is>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Taggmakrill</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C158">
-        <v>2503.5</v>
+        <v>782</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C159">
-        <v>2388.7</v>
+        <v>7</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Dermersalt fiske_Passivt_Östersjön</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>btrout.27.3a</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C160">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C161">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C162">
-        <v>60229.1</v>
+        <v>4092</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>lumpsucker.27</t>
         </is>
       </c>
       <c r="C163">
-        <v>47111.5</v>
+        <v>864</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>44256010</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hummerfiske_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>11073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>bzq.27.2628</t>
         </is>
       </c>
       <c r="C167">
-        <v>274550.4000000007</v>
+        <v>3595</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>lobster.27.3a</t>
+          <t>bll.27.22-32</t>
         </is>
       </c>
       <c r="C168">
-        <v>541.2</v>
+        <v>1050</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hummer</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C169">
-        <v>10277.1</v>
+        <v>2153</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C170">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>greatrweaver.27.3a4</t>
         </is>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Fjärsing</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C172">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>147497.5</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C175">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>lumpsucker.27.23.3a</t>
+          <t>spr.27.3a4</t>
         </is>
       </c>
       <c r="C176">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sjurygg</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C177">
-        <v>56</v>
+        <v>0.6</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3902,607 +3902,607 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C178">
-        <v>452.9999999999997</v>
+        <v>7</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Kräftburar_Passivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>sal.27.22-31</t>
         </is>
       </c>
       <c r="C179">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Lax</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>lem.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C180">
-        <v>199.5</v>
+        <v>21479</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Bergtunga</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>ven.27.3031</t>
         </is>
       </c>
       <c r="C181">
-        <v>32</v>
+        <v>12317</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Siklöja</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>spr.27.22-32</t>
         </is>
       </c>
       <c r="C182">
-        <v>672.4999999999999</v>
+        <v>46</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Skarpsill</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nep.fu.3-4</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C183">
-        <v>793021.0999999996</v>
+        <v>9</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Havskräfta</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>halibut.27</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C184">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hälleflundra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Pelagiskt fiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C185">
-        <v>128.3</v>
+        <v>34</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Öring</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>lem.27.3a47d</t>
         </is>
       </c>
       <c r="C186">
-        <v>2365.600000000001</v>
+        <v>15.9</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Bergtunga</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>bcrab.27.3a</t>
+          <t>whb.27.1-91214</t>
         </is>
       </c>
       <c r="C187">
-        <v>101.6</v>
+        <v>41</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Krabbtaska</t>
+          <t>Blåvitling</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>hke.27.3a46-8abd</t>
+          <t>pok.27.3a46</t>
         </is>
       </c>
       <c r="C188">
-        <v>719.7</v>
+        <v>48824.40000000011</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Kummel</t>
+          <t>Gråsej</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>lin.27.346-91214</t>
+          <t>nep.fu.3-4</t>
         </is>
       </c>
       <c r="C189">
-        <v>124.7</v>
+        <v>6189.200000000002</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Långa</t>
+          <t>Havskräfta</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mac.27.nea</t>
+          <t>halibut.27</t>
         </is>
       </c>
       <c r="C190">
-        <v>713.1</v>
+        <v>1142</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Makrill</t>
+          <t>Hälleflundra</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>anf.27.3a46</t>
+          <t>gug.27.3a47d</t>
         </is>
       </c>
       <c r="C191">
-        <v>618.1999999999998</v>
+        <v>6.7</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Marulk</t>
+          <t>Knot</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>pra.27.3a4a</t>
+          <t>had.27.46a20</t>
         </is>
       </c>
       <c r="C192">
-        <v>1581.5</v>
+        <v>8499.900000000025</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Nordhavsräka</t>
+          <t>Kolja</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>dgs.27.nea</t>
+          <t>hke.27.3a46-8abd</t>
         </is>
       </c>
       <c r="C193">
-        <v>1094.7</v>
+        <v>3791.800000000002</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Pigghaj</t>
+          <t>Kummel</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>tur.27.3a</t>
+          <t>lin.27.346-91214</t>
         </is>
       </c>
       <c r="C194">
-        <v>630.8999999999995</v>
+        <v>7649.199999999999</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Långa</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>wit.27.3a47d</t>
+          <t>mac.27.nea</t>
         </is>
       </c>
       <c r="C195">
-        <v>279.2999999999999</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Rödtunga</t>
+          <t>Makrill</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>dab.27.3a4</t>
+          <t>anf.27.3a46</t>
         </is>
       </c>
       <c r="C196">
-        <v>1346.1</v>
+        <v>11226.89999999999</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sandskädda</t>
+          <t>Marulk</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>fle.27.3a4</t>
+          <t>pra.27.3a4a</t>
         </is>
       </c>
       <c r="C197">
-        <v>391.4</v>
+        <v>906568.1999999979</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Nordhavsräka</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>rockor</t>
+          <t>dgs.27.nea</t>
         </is>
       </c>
       <c r="C198">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Slätrocka</t>
+          <t>Pigghaj</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>bll.27.3a47de</t>
+          <t>tur.27.3a</t>
         </is>
       </c>
       <c r="C199">
-        <v>3165.399999999998</v>
+        <v>27.8</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Slätvar</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>hom.27.3a4bc7d</t>
+          <t>wit.27.3a47d</t>
         </is>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2853.49999999999</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Taggmakrill</t>
+          <t>Rödtunga</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>cod.27.46a7d20</t>
+          <t>lumpsucker.27.23.3a</t>
         </is>
       </c>
       <c r="C201">
-        <v>2273.399999999999</v>
+        <v>10</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sjurygg</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>cod.27.21</t>
+          <t>rng.27.3a</t>
         </is>
       </c>
       <c r="C202">
-        <v>503.2999999999998</v>
+        <v>1000</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Skoläst</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>whg.27.3a</t>
+          <t>bll.27.3a47de</t>
         </is>
       </c>
       <c r="C203">
-        <v>2184.200000000006</v>
+        <v>7.1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Vitling</t>
+          <t>Slätvar</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>nop.27.3a4</t>
+          <t>cod.27.46a7d20</t>
         </is>
       </c>
       <c r="C204">
-        <v>21</v>
+        <v>27607.60000000001</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Vitlinglyra</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Kräftfiske med rist_Aktivt_Västerhavet</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>sol.27.20-24</t>
+          <t>cod.27.21</t>
         </is>
       </c>
       <c r="C205">
-        <v>750.900000000001</v>
+        <v>11.2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Äkta tunga</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>whg.27.3a</t>
         </is>
       </c>
       <c r="C206">
-        <v>116006.8</v>
+        <v>428.5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Lax</t>
+          <t>Vitling</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Räkfiske_Aktivt_Västerhavet</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>tur.27.22-32</t>
+          <t>nop.27.3a4</t>
         </is>
       </c>
       <c r="C207">
-        <v>30</v>
+        <v>30859.5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Piggvar</t>
+          <t>Vitlinglyra</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Siklöjefiske_Aktivt_Östersjön</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>90</v>
+        <v>1239670</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4522,2498 +4522,178 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>bzq.27.2425</t>
+          <t>tur.27.22-32</t>
         </is>
       </c>
       <c r="C209">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Skrubbskädda</t>
+          <t>Piggvar</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>cod.27.22-24</t>
+          <t>dab.27.22-32</t>
         </is>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Torsk</t>
+          <t>Sandskädda</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Laxfiske_Passivt_Östersjön</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>trs.27.22-32</t>
+          <t xml:space="preserve">bwp.27.2729-32 	</t>
         </is>
       </c>
       <c r="C211">
-        <v>3821.600000000001</v>
+        <v>1436</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Öring</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>whb.27.1-91214</t>
+          <t>bzq.27.2425</t>
         </is>
       </c>
       <c r="C212">
-        <v>360500</v>
+        <v>53</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Blåvitling</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>greatrweaver.27.3a4</t>
+          <t>fle.27.2223</t>
         </is>
       </c>
       <c r="C213">
-        <v>368</v>
+        <v>165</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Fjärsing</t>
+          <t>Skrubbskädda</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>pok.27.3a46</t>
+          <t>cod.27.24-32</t>
         </is>
       </c>
       <c r="C214">
-        <v>6930</v>
+        <v>39.99999999999999</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Gråsej</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>gug.27.3a47d</t>
+          <t>cod.27.22-24</t>
         </is>
       </c>
       <c r="C215">
-        <v>3650</v>
+        <v>205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Knot</t>
+          <t>Torsk</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>had.27.46a20</t>
+          <t>sol.27.20-24</t>
         </is>
       </c>
       <c r="C216">
-        <v>47130</v>
+        <v>100</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Kolja</t>
+          <t>Äkta tunga</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
+          <t>Ålfiske_Passivt_Östersjön</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>sal.27.22-31</t>
+          <t>trs.27.22-32</t>
         </is>
       </c>
       <c r="C217">
-        <v>7</v>
+        <v>1160</v>
       </c>
       <c r="D217" t="inlineStr">
-        <is>
-          <t>Lax</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C218">
-        <v>2032925</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>anf.27.3a46</t>
-        </is>
-      </c>
-      <c r="C219">
-        <v>20</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Marulk</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C220">
-        <v>220</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>dab.27.3a4</t>
-        </is>
-      </c>
-      <c r="C221">
-        <v>706</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>dab.27.22-32</t>
-        </is>
-      </c>
-      <c r="C222">
-        <v>75</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C223">
-        <v>4092</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>lumpsucker.27</t>
-        </is>
-      </c>
-      <c r="C224">
-        <v>864</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>spr.27.22-32</t>
-        </is>
-      </c>
-      <c r="C225">
-        <v>44256010</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>spr.27.3a4</t>
-        </is>
-      </c>
-      <c r="C226">
-        <v>9239606</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>bzq.27.2425</t>
-        </is>
-      </c>
-      <c r="C227">
-        <v>11073</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
-        </is>
-      </c>
-      <c r="C228">
-        <v>35</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>bzq.27.2628</t>
-        </is>
-      </c>
-      <c r="C229">
-        <v>3595</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>fle.27.3a4</t>
-        </is>
-      </c>
-      <c r="C230">
-        <v>300</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>bll.27.22-32</t>
-        </is>
-      </c>
-      <c r="C231">
-        <v>1050</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Slätvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
-        </is>
-      </c>
-      <c r="C232">
-        <v>7958</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Taggmakrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>hom.27.3a4bc7d</t>
-        </is>
-      </c>
-      <c r="C233">
-        <v>9625</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Taggmakrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C234">
-        <v>2153</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C235">
-        <v>147</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C236">
-        <v>180</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>whg.27.47d</t>
-        </is>
-      </c>
-      <c r="C237">
-        <v>38570</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C238">
-        <v>782</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>nop.27.3a4</t>
-        </is>
-      </c>
-      <c r="C239">
-        <v>11710</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Vitlinglyra</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>whb.27.1-91214</t>
-        </is>
-      </c>
-      <c r="C240">
-        <v>360500</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Blåvitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>greatrweaver.27.3a4</t>
-        </is>
-      </c>
-      <c r="C241">
-        <v>368</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Fjärsing</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C242">
-        <v>6930</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C243">
-        <v>3650</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>had.27.46a20</t>
-        </is>
-      </c>
-      <c r="C244">
-        <v>47130</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Kolja</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>sal.27.22-31</t>
-        </is>
-      </c>
-      <c r="C245">
-        <v>7</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Lax</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C246">
-        <v>2032898</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>anf.27.3a46</t>
-        </is>
-      </c>
-      <c r="C247">
-        <v>20</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Marulk</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C248">
-        <v>220</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>dab.27.3a4</t>
-        </is>
-      </c>
-      <c r="C249">
-        <v>706</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>dab.27.22-32</t>
-        </is>
-      </c>
-      <c r="C250">
-        <v>75</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C251">
-        <v>4092</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>lumpsucker.27</t>
-        </is>
-      </c>
-      <c r="C252">
-        <v>864</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>spr.27.22-32</t>
-        </is>
-      </c>
-      <c r="C253">
-        <v>44256010</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>spr.27.3a4</t>
-        </is>
-      </c>
-      <c r="C254">
-        <v>9180456</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>bzq.27.2425</t>
-        </is>
-      </c>
-      <c r="C255">
-        <v>11073</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
-        </is>
-      </c>
-      <c r="C256">
-        <v>35</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>bzq.27.2628</t>
-        </is>
-      </c>
-      <c r="C257">
-        <v>3595</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>fle.27.3a4</t>
-        </is>
-      </c>
-      <c r="C258">
-        <v>300</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>bll.27.22-32</t>
-        </is>
-      </c>
-      <c r="C259">
-        <v>1050</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Slätvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>hom.27.2a4a5b6a7a-ce-k8</t>
-        </is>
-      </c>
-      <c r="C260">
-        <v>7958</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Taggmakrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>hom.27.3a4bc7d</t>
-        </is>
-      </c>
-      <c r="C261">
-        <v>9625</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Taggmakrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C262">
-        <v>2153</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C263">
-        <v>147</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C264">
-        <v>180</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>whg.27.47d</t>
-        </is>
-      </c>
-      <c r="C265">
-        <v>38570</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C266">
-        <v>782</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>nop.27.3a4</t>
-        </is>
-      </c>
-      <c r="C267">
-        <v>11710</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Vitlinglyra</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>greatrweaver.27.3a4</t>
-        </is>
-      </c>
-      <c r="C268">
-        <v>9</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Fjärsing</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C269">
-        <v>20</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C270">
-        <v>3</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>sal.27.22-31</t>
-        </is>
-      </c>
-      <c r="C271">
-        <v>4</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Lax</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C272">
-        <v>168976.5</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C273">
-        <v>337</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C274">
-        <v>1250</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>spr.27.22-32</t>
-        </is>
-      </c>
-      <c r="C275">
-        <v>46</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>spr.27.3a4</t>
-        </is>
-      </c>
-      <c r="C276">
-        <v>50</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C277">
-        <v>0.6</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C278">
-        <v>9</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C279">
-        <v>4</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C280">
-        <v>7</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C281">
-        <v>34</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Öring</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>greatrweaver.27.3a4</t>
-        </is>
-      </c>
-      <c r="C282">
-        <v>9</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Fjärsing</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C283">
-        <v>20</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C284">
-        <v>3</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>sal.27.22-31</t>
-        </is>
-      </c>
-      <c r="C285">
-        <v>4</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Lax</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C286">
-        <v>168976.5</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C287">
-        <v>337</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C288">
-        <v>12317</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>spr.27.22-32</t>
-        </is>
-      </c>
-      <c r="C289">
-        <v>46</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>spr.27.3a4</t>
-        </is>
-      </c>
-      <c r="C290">
-        <v>50</v>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Skarpsill</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C291">
-        <v>0.6</v>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C292">
-        <v>9</v>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C293">
-        <v>4</v>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C294">
-        <v>7</v>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Pelagiskt fiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C295">
-        <v>34</v>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Öring</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>lem.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C296">
-        <v>16.5</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Bergtunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>whb.27.1-91214</t>
-        </is>
-      </c>
-      <c r="C297">
-        <v>91</v>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Blåvitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>pok.27.3a46</t>
-        </is>
-      </c>
-      <c r="C298">
-        <v>53919.20000000011</v>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Gråsej</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>nep.fu.3-4</t>
-        </is>
-      </c>
-      <c r="C299">
-        <v>6189.200000000002</v>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Havskräfta</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>halibut.27</t>
-        </is>
-      </c>
-      <c r="C300">
-        <v>1345.7</v>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Hälleflundra</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>gug.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C301">
-        <v>6.7</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Knot</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>had.27.46a20</t>
-        </is>
-      </c>
-      <c r="C302">
-        <v>8499.900000000025</v>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Kolja</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>hke.27.3a46-8abd</t>
-        </is>
-      </c>
-      <c r="C303">
-        <v>4284.100000000001</v>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Kummel</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>lin.27.346-91214</t>
-        </is>
-      </c>
-      <c r="C304">
-        <v>8346.199999999993</v>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Långa</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>mac.27.nea</t>
-        </is>
-      </c>
-      <c r="C305">
-        <v>8.5</v>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Makrill</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>anf.27.3a46</t>
-        </is>
-      </c>
-      <c r="C306">
-        <v>11820.29999999999</v>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Marulk</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>pra.27.3a4a</t>
-        </is>
-      </c>
-      <c r="C307">
-        <v>937569.199999998</v>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Nordhavsräka</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>dgs.27.nea</t>
-        </is>
-      </c>
-      <c r="C308">
-        <v>54</v>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Pigghaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>tur.27.3a</t>
-        </is>
-      </c>
-      <c r="C309">
-        <v>27.8</v>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Piggvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>wit.27.3a47d</t>
-        </is>
-      </c>
-      <c r="C310">
-        <v>2901.399999999989</v>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Rödtunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>lumpsucker.27.23.3a</t>
-        </is>
-      </c>
-      <c r="C311">
-        <v>10</v>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>rng.27.3a</t>
-        </is>
-      </c>
-      <c r="C312">
-        <v>1000</v>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Skoläst</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>bll.27.3a47de</t>
-        </is>
-      </c>
-      <c r="C313">
-        <v>7.1</v>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Slätvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C314">
-        <v>28421.89999999999</v>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>cod.27.21</t>
-        </is>
-      </c>
-      <c r="C315">
-        <v>11.2</v>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>whg.27.47d</t>
-        </is>
-      </c>
-      <c r="C316">
-        <v>1.3</v>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>whg.27.3a</t>
-        </is>
-      </c>
-      <c r="C317">
-        <v>428.5</v>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Vitling</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Räkfiske_Aktivt_Västerhavet</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>nop.27.3a4</t>
-        </is>
-      </c>
-      <c r="C318">
-        <v>32929.5</v>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>Vitlinglyra</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Siklöjefiske_Aktivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>ven.27.3031</t>
-        </is>
-      </c>
-      <c r="C319">
-        <v>1239670</v>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Siklöja</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>bcrab.27.3a</t>
-        </is>
-      </c>
-      <c r="C320">
-        <v>74</v>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>Krabbtaska</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>tur.27.22-32</t>
-        </is>
-      </c>
-      <c r="C321">
-        <v>1</v>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Piggvar</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>dab.27.22-32</t>
-        </is>
-      </c>
-      <c r="C322">
-        <v>5</v>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Sandskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>lumpsucker.27.23.3a</t>
-        </is>
-      </c>
-      <c r="C323">
-        <v>2.5</v>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Sjurygg</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bwp.27.2729-32 	</t>
-        </is>
-      </c>
-      <c r="C324">
-        <v>1436</v>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>bzq.27.2425</t>
-        </is>
-      </c>
-      <c r="C325">
-        <v>53</v>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>fle.27.2223</t>
-        </is>
-      </c>
-      <c r="C326">
-        <v>165</v>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>fle.27.3a4</t>
-        </is>
-      </c>
-      <c r="C327">
-        <v>5</v>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>Skrubbskädda</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>cod.27.21</t>
-        </is>
-      </c>
-      <c r="C328">
-        <v>25</v>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>cod.27.24-32</t>
-        </is>
-      </c>
-      <c r="C329">
-        <v>39.99999999999999</v>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>cod.27.46a7d20</t>
-        </is>
-      </c>
-      <c r="C330">
-        <v>105</v>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>cod.27.22-24</t>
-        </is>
-      </c>
-      <c r="C331">
-        <v>205</v>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Torsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>sol.27.20-24</t>
-        </is>
-      </c>
-      <c r="C332">
-        <v>100</v>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Äkta tunga</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Ålfiske_Passivt_Östersjön</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>trs.27.22-32</t>
-        </is>
-      </c>
-      <c r="C333">
-        <v>1160</v>
-      </c>
-      <c r="D333" t="inlineStr">
         <is>
           <t>Öring</t>
         </is>
